--- a/artigos_SPringer/SelecaoFase1 - Saulo.xlsx
+++ b/artigos_SPringer/SelecaoFase1 - Saulo.xlsx
@@ -66,6 +66,7 @@
         <color rgb="FF131413"/>
         <rFont val="MhdmbxTimes-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">I. Anagnostopoulos</t>
     </r>
@@ -76,6 +77,7 @@
         <color rgb="FF131413"/>
         <rFont val="MhdmbxTimes-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -86,6 +88,7 @@
         <color rgb="FF131413"/>
         <rFont val="NbqwnsMTSYB"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">· </t>
     </r>
@@ -96,6 +99,7 @@
         <color rgb="FF131413"/>
         <rFont val="MhdmbxTimes-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">S. Zeadally</t>
     </r>
@@ -106,6 +110,7 @@
         <color rgb="FF131413"/>
         <rFont val="MhdmbxTimes-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -116,6 +121,7 @@
         <color rgb="FF131413"/>
         <rFont val="NbqwnsMTSYB"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">· </t>
     </r>
@@ -126,6 +132,7 @@
         <color rgb="FF131413"/>
         <rFont val="MhdmbxTimes-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">E. Exposito</t>
     </r>
@@ -136,6 +143,7 @@
         <color rgb="FF131413"/>
         <rFont val="MhdmbxTimes-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3</t>
     </r>
@@ -151,6 +159,7 @@
         <color rgb="FF131413"/>
         <rFont val="Times-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Claire C. Austin</t>
     </r>
@@ -161,6 +170,7 @@
         <color rgb="FF131413"/>
         <rFont val="Times-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -171,6 +181,7 @@
         <color rgb="FF131413"/>
         <rFont val="MTMI"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -181,6 +192,7 @@
         <color rgb="FF131413"/>
         <rFont val="Times-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -191,6 +203,7 @@
         <color rgb="FF131413"/>
         <rFont val="MTSYB"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">· </t>
     </r>
@@ -201,6 +214,7 @@
         <color rgb="FF131413"/>
         <rFont val="Times-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Theodora Bloom</t>
     </r>
@@ -211,6 +225,7 @@
         <color rgb="FF131413"/>
         <rFont val="Times-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3 </t>
     </r>
@@ -221,6 +236,7 @@
         <color rgb="FF131413"/>
         <rFont val="MTSYB"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">· </t>
     </r>
@@ -231,6 +247,7 @@
         <color rgb="FF131413"/>
         <rFont val="Times-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Sünje Dallmeier-Tiessen</t>
     </r>
@@ -241,6 +258,7 @@
         <color rgb="FF131413"/>
         <rFont val="Times-Bold"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4 </t>
     </r>
@@ -251,101 +269,85 @@
         <color rgb="FF131413"/>
         <rFont val="MTSYB"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">·</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+    <t xml:space="preserve">Key components of data publishing: using current best practices to develop a reference model for data publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaitanya Baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing and caring of eScience data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF131413"/>
+        <rFont val="AdvTT3713a231"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Who</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF131413"/>
+        <rFont val="AdvTT3713a231+20"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="17"/>
+        <color rgb="FF131413"/>
+        <rFont val="AdvTT3713a231"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">s Got the Data? Interdependencies in Science</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge infrastructures in science: data, diversity, and digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Computational Biology Database Digest:
+Data, Data Analysis, and Data Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journalists as Crowdsourcerers: Responding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What lies beneath?: Knowledge infrastructures in the subseafloor
+biosphere and beyond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiences in integrated data and research object publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advancing research data publishing practices for the social
+sciences: from archive activity to empowering researchers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Key components of data publishing: using current best practices </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">to develop a reference model for data publishing</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaitanya Baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharing and caring of eScience data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminado</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="17"/>
-        <color rgb="FF131413"/>
-        <rFont val="AdvTT3713a231"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">Who</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="17"/>
-        <color rgb="FF131413"/>
-        <rFont val="AdvTT3713a231+20"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="17"/>
-        <color rgb="FF131413"/>
-        <rFont val="AdvTT3713a231"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">s Got the Data? Interdependencies in Science</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Knowledge infrastructures in science: data, diversity, and digital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Computational Biology Database Digest:
-Data, Data Analysis, and Data Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journalists as Crowdsourcerers: Responding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What lies beneath?: Knowledge infrastructures in the subseafloor
-biosphere and beyond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiences in integrated data and research object publishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advancing research data publishing practices for the social
-sciences: from archive activity to empowering researchers</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">Counter-Discourse Activism on Social Media:</t>
     </r>
     <r>
@@ -354,6 +356,7 @@
         <color rgb="FF131413"/>
         <rFont val="GxksjjAdvTT3713a231"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The Case of Challenging </t>
     </r>
@@ -363,6 +366,7 @@
         <color rgb="FF131413"/>
         <rFont val="GctkfxAdvTT3713a231+20"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">“</t>
     </r>
@@ -372,6 +376,7 @@
         <color rgb="FF131413"/>
         <rFont val="GxksjjAdvTT3713a231"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Poverty Porn</t>
     </r>
@@ -381,6 +386,7 @@
         <color rgb="FF131413"/>
         <rFont val="GctkfxAdvTT3713a231+20"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">” </t>
     </r>
@@ -390,6 +396,7 @@
         <color rgb="FF131413"/>
         <rFont val="GxksjjAdvTT3713a231"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Television</t>
     </r>
@@ -433,6 +440,7 @@
         <color rgb="FF131413"/>
         <rFont val="AdvTT3713a231"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Crisis Crowdsourcing Framework: Designing
 Strategic Con</t>
@@ -443,6 +451,7 @@
         <color rgb="FF131413"/>
         <rFont val="AdvTT3713a231+fb"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">fi</t>
     </r>
@@ -452,6 +461,7 @@
         <color rgb="FF131413"/>
         <rFont val="AdvTT3713a231"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">gurations of Crowdsourcing
 for the Emergency Management Domain</t>
@@ -573,7 +583,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -617,6 +627,7 @@
       <color rgb="FF131413"/>
       <name val="MhdmbxTimes-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -624,6 +635,7 @@
       <color rgb="FF131413"/>
       <name val="MhdmbxTimes-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -631,6 +643,7 @@
       <color rgb="FF131413"/>
       <name val="NbqwnsMTSYB"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -638,6 +651,7 @@
       <color rgb="FF131413"/>
       <name val="Times-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -645,6 +659,7 @@
       <color rgb="FF131413"/>
       <name val="Times-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -652,6 +667,7 @@
       <color rgb="FF131413"/>
       <name val="MTMI"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -659,6 +675,7 @@
       <color rgb="FF131413"/>
       <name val="MTSYB"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -669,29 +686,25 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="17"/>
       <color rgb="FF131413"/>
       <name val="AdvTT3713a231"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="17"/>
       <color rgb="FF131413"/>
       <name val="AdvTT3713a231+20"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Times-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -699,24 +712,28 @@
       <color rgb="FF131413"/>
       <name val="Times-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF131413"/>
       <name val="Times-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="17"/>
       <color rgb="FF131413"/>
       <name val="GxksjjAdvTT3713a231"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="17"/>
       <color rgb="FF131413"/>
       <name val="GctkfxAdvTT3713a231+20"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -732,6 +749,7 @@
       <color rgb="FF141314"/>
       <name val="Times-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -739,30 +757,35 @@
       <color rgb="FF000000"/>
       <name val="MyriadPro-SemiboldSemiCn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="AdvTimes"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="MyriadPro-SemiboldSemiCn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="17"/>
       <color rgb="FF131413"/>
       <name val="TggqgvAdvTT3713a231"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="17"/>
       <color rgb="FF131413"/>
       <name val="AdvTT3713a231+fb"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -770,6 +793,7 @@
       <color rgb="FF131413"/>
       <name val="MyriadPro-SemiboldSemiCn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -777,12 +801,14 @@
       <color rgb="FF131413"/>
       <name val="Times-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="AdvGTIMES-B"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -790,6 +816,7 @@
       <color rgb="FF131413"/>
       <name val="YqfmvtTimes-Bold"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -797,6 +824,7 @@
       <color rgb="FF000000"/>
       <name val="MyriadPro-SemiboldSemiCn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -804,18 +832,21 @@
       <color rgb="FF131413"/>
       <name val="MyriadPro-SemiboldSemiCn"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF131413"/>
       <name val="KpxpksAdvTTb8864ccf.B"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF131413"/>
       <name val="RxypbnAdvTT577c760c"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -912,10 +943,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -924,7 +959,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -948,11 +983,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -992,15 +1027,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,14 +1128,14 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A38" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.86"/>
@@ -1662,7 +1693,10 @@
         <v>2015</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
